--- a/SIUBET/Uploads/DocGenerado.xlsx
+++ b/SIUBET/Uploads/DocGenerado.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
   <si>
     <t>AREA DE ADMINISTRACIÓN DOCUMENTARIA E INFORMÁTICA</t>
   </si>
@@ -23,7 +23,7 @@
     <t>FECHA</t>
   </si>
   <si>
-    <t>23-06-2017</t>
+    <t>26-06-2017</t>
   </si>
   <si>
     <t>DATOS DEL SOLICITANTE</t>
@@ -32,7 +32,7 @@
     <t>NOMBRES Y APELLIDOS</t>
   </si>
   <si>
-    <t>ANTHONY BRYAN SALAS RODRIGUEZ</t>
+    <t>CESAR AUGUSTO HERNA PURISACA</t>
   </si>
   <si>
     <t>UNIDAD ÓRGANICA</t>
@@ -50,12 +50,15 @@
     <t>CORREO</t>
   </si>
   <si>
-    <t>asalasr@vivienda.gob.pe</t>
+    <t>cherna@vivienda.gob.pe</t>
   </si>
   <si>
     <t>TIPO DEL SERVICIO</t>
   </si>
   <si>
+    <t>ARCHIVO DIGITAL,COPIA SIMPLE</t>
+  </si>
+  <si>
     <t>ITEM</t>
   </si>
   <si>
@@ -81,6 +84,9 @@
   </si>
   <si>
     <t>CD</t>
+  </si>
+  <si>
+    <t>MEJORAMIENTO DEL SISTEMA DE AGUA POTABLE, E INSTALACIÓN DE RED COLECTORA DE DESAGUE-PLANTA DE TRATAMIENTO DE AGUAS SERVIDAS DEL PUEBLO DE LA CAPILLA Y EL ANEXO DE VINOMORE, DISTRITO LA CAPILLA, REGIÓN MOQUEGUA</t>
   </si>
   <si>
     <t>OBSERVACIONES</t>
@@ -509,7 +515,7 @@
       <c r="D14" s="4"/>
       <c r="E14" s="4"/>
       <c r="F14" s="4" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="G14" s="4"/>
       <c r="H14" s="4"/>
@@ -536,31 +542,31 @@
       <c r="A16" s="4"/>
       <c r="B16" s="7"/>
       <c r="C16" s="9" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D16" s="9" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E16" s="9" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F16" s="9" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G16" s="9" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H16" s="12" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I16" s="12" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J16" s="12" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K16" s="12" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="L16" s="2"/>
     </row>
@@ -571,10 +577,10 @@
         <v>1</v>
       </c>
       <c r="D17" s="17">
-        <v>27900</v>
+        <v>23080</v>
       </c>
       <c r="E17" s="18" t="s">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="F17" s="17" t="s">
         <v>8</v>
@@ -600,7 +606,7 @@
       <c r="A18" s="16"/>
       <c r="B18" s="25"/>
       <c r="C18" s="16" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D18" s="16"/>
       <c r="E18" s="19" t="s">
@@ -662,12 +668,12 @@
       <c r="C22" s="22"/>
       <c r="D22" s="22"/>
       <c r="E22" s="22" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F22" s="22"/>
       <c r="G22" s="22"/>
       <c r="H22" s="22" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="I22" s="22"/>
       <c r="J22" s="22"/>
@@ -680,12 +686,12 @@
       <c r="C23" s="22"/>
       <c r="D23" s="22"/>
       <c r="E23" s="22" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="F23" s="22"/>
       <c r="G23" s="22"/>
       <c r="H23" s="22" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="I23" s="22"/>
       <c r="J23" s="22"/>
@@ -713,7 +719,7 @@
       <c r="D25" s="22"/>
       <c r="E25" s="22"/>
       <c r="F25" s="22" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G25" s="22"/>
       <c r="H25" s="22"/>
@@ -729,7 +735,7 @@
       <c r="D26" s="22"/>
       <c r="E26" s="22"/>
       <c r="F26" s="22" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G26" s="22"/>
       <c r="H26" s="22"/>
